--- a/time/sarah-mclaughlin/sprint-2-time.xlsx
+++ b/time/sarah-mclaughlin/sprint-2-time.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>User</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>learn web dev</t>
-  </si>
-  <si>
-    <t>1.4 Meet your cohort</t>
   </si>
   <si>
     <t>No</t>
@@ -939,9 +936,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1007,25 +1006,25 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="1">
         <v>43117</v>
       </c>
       <c r="I2" s="2">
-        <v>0.34991898148148143</v>
+        <v>0.60938657407407404</v>
       </c>
       <c r="J2" s="1">
         <v>43117</v>
       </c>
       <c r="K2" s="2">
-        <v>0.38332175925925926</v>
+        <v>0.76765046296296291</v>
       </c>
       <c r="L2" s="2">
-        <v>3.3402777777777774E-2</v>
+        <v>0.1582638888888889</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1042,22 +1041,22 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1">
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="I3" s="2">
-        <v>0.60938657407407404</v>
+        <v>0.36437499999999995</v>
       </c>
       <c r="J3" s="1">
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="K3" s="2">
-        <v>0.76765046296296291</v>
+        <v>0.41229166666666667</v>
       </c>
       <c r="L3" s="2">
-        <v>0.1582638888888889</v>
+        <v>4.7916666666666663E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1074,22 +1073,22 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1">
         <v>43118</v>
       </c>
       <c r="I4" s="2">
-        <v>0.36437499999999995</v>
+        <v>0.42695601851851855</v>
       </c>
       <c r="J4" s="1">
         <v>43118</v>
       </c>
       <c r="K4" s="2">
-        <v>0.41229166666666667</v>
+        <v>0.56723379629629633</v>
       </c>
       <c r="L4" s="2">
-        <v>4.7916666666666663E-2</v>
+        <v>0.14027777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1103,25 +1102,25 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1">
         <v>43118</v>
       </c>
       <c r="I5" s="2">
-        <v>0.42695601851851855</v>
+        <v>0.58491898148148147</v>
       </c>
       <c r="J5" s="1">
         <v>43118</v>
       </c>
       <c r="K5" s="2">
-        <v>0.56723379629629633</v>
+        <v>0.60545138888888894</v>
       </c>
       <c r="L5" s="2">
-        <v>0.14027777777777778</v>
+        <v>2.0532407407407405E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1131,29 +1130,26 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1">
         <v>43118</v>
       </c>
       <c r="I6" s="2">
-        <v>0.58491898148148147</v>
+        <v>0.61781249999999999</v>
       </c>
       <c r="J6" s="1">
         <v>43118</v>
       </c>
       <c r="K6" s="2">
-        <v>0.60545138888888894</v>
+        <v>0.73185185185185186</v>
       </c>
       <c r="L6" s="2">
-        <v>2.0532407407407405E-2</v>
+        <v>0.11403935185185186</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1163,26 +1159,29 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1">
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="I7" s="2">
-        <v>0.61781249999999999</v>
+        <v>0.35923611111111109</v>
       </c>
       <c r="J7" s="1">
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="K7" s="2">
-        <v>0.73185185185185186</v>
+        <v>0.41070601851851851</v>
       </c>
       <c r="L7" s="2">
-        <v>0.11403935185185186</v>
+        <v>5.1469907407407402E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1199,22 +1198,22 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1">
         <v>43119</v>
       </c>
       <c r="I8" s="2">
-        <v>0.35923611111111109</v>
+        <v>0.71049768518518519</v>
       </c>
       <c r="J8" s="1">
         <v>43119</v>
       </c>
       <c r="K8" s="2">
-        <v>0.41070601851851851</v>
+        <v>0.81258101851851849</v>
       </c>
       <c r="L8" s="2">
-        <v>5.1469907407407402E-2</v>
+        <v>0.10208333333333335</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1231,22 +1230,22 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1">
-        <v>43119</v>
+        <v>43121</v>
       </c>
       <c r="I9" s="2">
-        <v>0.71049768518518519</v>
+        <v>0.59375</v>
       </c>
       <c r="J9" s="1">
-        <v>43119</v>
+        <v>43121</v>
       </c>
       <c r="K9" s="2">
-        <v>0.81258101851851849</v>
+        <v>0.6875</v>
       </c>
       <c r="L9" s="2">
-        <v>0.10208333333333335</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1260,56 +1259,24 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1">
         <v>43121</v>
       </c>
       <c r="I10" s="2">
-        <v>0.59375</v>
+        <v>0.89638888888888879</v>
       </c>
       <c r="J10" s="1">
         <v>43121</v>
       </c>
       <c r="K10" s="2">
-        <v>0.6875</v>
+        <v>0.94847222222222216</v>
       </c>
       <c r="L10" s="2">
-        <v>9.375E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1">
-        <v>43121</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.89638888888888879</v>
-      </c>
-      <c r="J11" s="1">
-        <v>43121</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.94847222222222216</v>
-      </c>
-      <c r="L11" s="2">
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
